--- a/data/partner_466/level_2.xlsx
+++ b/data/partner_466/level_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{519FC76C-660F-3041-9621-A3E70A0F910F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C83A3-FB99-C849-83A4-DAD8B1353D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{03876A18-F305-C940-BEA4-F5E98A996680}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Prin ID</t>
-  </si>
-  <si>
     <t>acc_id</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>SALE</t>
+  </si>
+  <si>
+    <t>Partner ID</t>
   </si>
 </sst>
 </file>
@@ -464,49 +464,49 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>15000</v>
